--- a/database/industries/felezat/faira/product/yearly_seprated.xlsx
+++ b/database/industries/felezat/faira/product/yearly_seprated.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\felezat\faira\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\felezat\faira\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E47453-1D06-4FAE-84E9-1D0284628F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -171,7 +172,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -364,7 +365,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -376,7 +377,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -423,6 +424,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -458,6 +476,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -609,7 +644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/database/industries/felezat/faira/product/yearly_seprated.xlsx
+++ b/database/industries/felezat/faira/product/yearly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\felezat\faira\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\felezat\faira\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E47453-1D06-4FAE-84E9-1D0284628F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091597A4-6D27-4A80-8BAF-BB563CD2B5B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -649,12 +649,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -664,7 +664,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -676,7 +676,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -688,7 +688,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -698,7 +698,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -710,7 +710,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -722,7 +722,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -732,7 +732,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -754,7 +754,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -764,7 +764,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -776,7 +776,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>11</v>
       </c>
@@ -800,7 +800,7 @@
         <v>6919</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>14</v>
       </c>
@@ -824,7 +824,7 @@
         <v>104237</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
@@ -848,7 +848,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
         <v>16</v>
       </c>
@@ -870,7 +870,7 @@
         <v>113101</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
         <v>17</v>
       </c>
@@ -882,7 +882,7 @@
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>11</v>
       </c>
@@ -906,7 +906,7 @@
         <v>10052</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="12" t="s">
         <v>14</v>
       </c>
@@ -930,7 +930,7 @@
         <v>42410</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>18</v>
       </c>
@@ -954,7 +954,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="14" t="s">
         <v>19</v>
       </c>
@@ -976,7 +976,7 @@
         <v>52462</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>20</v>
       </c>
@@ -988,7 +988,7 @@
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="18" t="s">
         <v>21</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
         <v>22</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="18" t="s">
         <v>24</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
         <v>25</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>165563</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1088,7 +1088,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1098,7 +1098,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1108,7 +1108,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B28" s="7" t="s">
         <v>26</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1140,7 +1140,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
         <v>27</v>
       </c>
@@ -1152,7 +1152,7 @@
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>11</v>
       </c>
@@ -1176,7 +1176,7 @@
         <v>4866469</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="12" t="s">
         <v>14</v>
       </c>
@@ -1200,7 +1200,7 @@
         <v>66974092</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>15</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>1172543</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="14" t="s">
         <v>16</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>73013104</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>29</v>
       </c>
@@ -1258,7 +1258,7 @@
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>11</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>7482045</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="12" t="s">
         <v>14</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>24197757</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>18</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>19</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>31679802</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="16" t="s">
         <v>30</v>
       </c>
@@ -1364,7 +1364,7 @@
       <c r="H40" s="17"/>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="18" t="s">
         <v>21</v>
       </c>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="14" t="s">
         <v>22</v>
       </c>
@@ -1410,7 +1410,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="18" t="s">
         <v>24</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="14" t="s">
         <v>25</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>104692906</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1466,7 +1466,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1476,7 +1476,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1486,7 +1486,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B48" s="7" t="s">
         <v>31</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1518,7 +1518,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>32</v>
       </c>
@@ -1530,7 +1530,7 @@
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>11</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>703348605</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="12" t="s">
         <v>14</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>642517455</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
         <v>15</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>602849871</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
         <v>34</v>
       </c>
@@ -1614,7 +1614,7 @@
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>11</v>
       </c>
@@ -1638,7 +1638,7 @@
         <v>744333963</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="12" t="s">
         <v>14</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>570567248</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>18</v>
       </c>
@@ -1686,7 +1686,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1696,7 +1696,7 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1706,7 +1706,7 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1716,7 +1716,7 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B61" s="7" t="s">
         <v>35</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1748,7 +1748,7 @@
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="s">
         <v>36</v>
       </c>
@@ -1760,7 +1760,7 @@
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
         <v>11</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>-3132972</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="12" t="s">
         <v>14</v>
       </c>
@@ -1808,7 +1808,7 @@
         <v>-43705740</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
         <v>15</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>-426465</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="14" t="s">
         <v>37</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>-47265177</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
         <v>38</v>
       </c>
@@ -1866,7 +1866,7 @@
       <c r="H68" s="9"/>
       <c r="I68" s="9"/>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>11</v>
       </c>
@@ -1890,7 +1890,7 @@
         <v>-4551450</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="12" t="s">
         <v>14</v>
       </c>
@@ -1914,7 +1914,7 @@
         <v>-17782061</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>18</v>
       </c>
@@ -1938,7 +1938,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="14" t="s">
         <v>39</v>
       </c>
@@ -1960,7 +1960,7 @@
         <v>-22333511</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="16" t="s">
         <v>40</v>
       </c>
@@ -1972,7 +1972,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="18" t="s">
         <v>41</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="14" t="s">
         <v>22</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="18" t="s">
         <v>24</v>
       </c>
@@ -2042,7 +2042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="14" t="s">
         <v>25</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>-69598688</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2074,7 +2074,7 @@
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2084,7 +2084,7 @@
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2094,7 +2094,7 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B81" s="7" t="s">
         <v>42</v>
       </c>
@@ -2116,7 +2116,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2126,7 +2126,7 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
         <v>43</v>
       </c>
@@ -2138,7 +2138,7 @@
       <c r="H83" s="9"/>
       <c r="I83" s="9"/>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>11</v>
       </c>
@@ -2162,7 +2162,7 @@
         <v>1733497</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="12" t="s">
         <v>14</v>
       </c>
@@ -2186,7 +2186,7 @@
         <v>23268352</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>15</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>746078</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="14" t="s">
         <v>44</v>
       </c>
@@ -2232,7 +2232,7 @@
         <v>25747927</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="8" t="s">
         <v>45</v>
       </c>
@@ -2244,7 +2244,7 @@
       <c r="H88" s="9"/>
       <c r="I88" s="9"/>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="10" t="s">
         <v>11</v>
       </c>
@@ -2268,7 +2268,7 @@
         <v>2930595</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="12" t="s">
         <v>14</v>
       </c>
@@ -2292,7 +2292,7 @@
         <v>6415696</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="10" t="s">
         <v>18</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="14" t="s">
         <v>46</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>9346291</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="16" t="s">
         <v>47</v>
       </c>
@@ -2350,7 +2350,7 @@
       <c r="H93" s="17"/>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="18" t="s">
         <v>48</v>
       </c>
@@ -2372,7 +2372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="14" t="s">
         <v>25</v>
       </c>
